--- a/pattern_code_far_field.xlsx
+++ b/pattern_code_far_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\Green Function Method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E43DB-B7B0-442D-A7E0-720C8D0703B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926504BB-30B7-43E6-8387-4B257402AD42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="2" xr2:uid="{F0408D6B-1B69-4349-BDBA-47C8B32E2449}"/>
   </bookViews>
@@ -5611,673 +5611,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC36086-1B63-4D1B-A8A9-186E92F2207F}">
-  <dimension ref="B2:P16"/>
+  <dimension ref="B16:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="B2:P16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="21" width="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0</v>
       </c>
@@ -6321,6 +5666,1199 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <v>0</v>
       </c>
     </row>

--- a/pattern_code_far_field.xlsx
+++ b/pattern_code_far_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Non-Hermitian Gauge Field\non-hermitian-gauge-field\Green Function Method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F422F-B3DA-4E7E-B5EF-94EC3770BF56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE261CD-E368-4707-A352-2F0A9A6F585E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{F0408D6B-1B69-4349-BDBA-47C8B32E2449}"/>
   </bookViews>
@@ -94,6 +94,82 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F54215-7659-4621-9911-B47971B379B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="9486900"/>
+          <a:ext cx="15354300" cy="16802100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="100000"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139E4D90-05E5-4074-BB79-3C52273E58F6}">
   <dimension ref="B2:CC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:CC81"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="CY83" sqref="CY83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19767,6 +19843,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29592,8 +29669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC36086-1B63-4D1B-A8A9-186E92F2207F}">
   <dimension ref="B16:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="V77" sqref="V77"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
